--- a/colegio.xlsx
+++ b/colegio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="estudiantes" sheetId="1" r:id="rId1"/>
@@ -1716,6 +1716,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1730,30 +1746,26 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1775,50 +1787,13 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1826,7 +1801,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1836,7 +1811,11 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2160,6 +2139,27 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2680,7 +2680,7 @@
       <calculatedColumnFormula>RANDBETWEEN(1,100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" name="barrio" dataDxfId="35"/>
-    <tableColumn id="20" name="estrato" dataDxfId="13">
+    <tableColumn id="20" name="estrato" dataDxfId="34">
       <calculatedColumnFormula>RANDBETWEEN(1,5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2689,24 +2689,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:J24" totalsRowShown="0" headerRowDxfId="34" totalsRowDxfId="31" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:J24" totalsRowShown="0" headerRowDxfId="33" totalsRowDxfId="30" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="29">
   <autoFilter ref="B4:J24"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Nombre" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="segundo nombre" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="Apellido" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" name="segundo apellido" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="asignatura" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="salario" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="1" name="Nombre" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="segundo nombre" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" name="Apellido" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="segundo apellido" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" name="asignatura" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" name="salario" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>RANDBETWEEN(1000000,8000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="telefono" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="7" name="telefono" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>RANDBETWEEN(1000000000,9999999999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Carrera" dataDxfId="12" totalsRowDxfId="15">
+    <tableColumn id="8" name="Carrera" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>RANDBETWEEN(1,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="#" dataDxfId="11" totalsRowDxfId="14">
+    <tableColumn id="9" name="#" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>RANDBETWEEN(1,100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2715,7 +2715,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B4:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B4:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B4:H24"/>
   <tableColumns count="7">
     <tableColumn id="1" name="nombre" dataDxfId="6"/>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:XFC1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:Q105"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,22 +3140,22 @@
       </c>
       <c r="F5" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H36" ca="1" si="0">RANDBETWEEN(1,28)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I36" ca="1" si="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J36" ca="1" si="2">RANDBETWEEN(2002,2010)</f>
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>32</v>
@@ -3165,30 +3165,30 @@
       </c>
       <c r="M5" s="15">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" ref="N5:N36" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" ref="O5:O36" ca="1" si="4">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" ref="P5:P36" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q36" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" ref="S5:S36" ca="1" si="7">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3209,22 +3209,22 @@
       </c>
       <c r="F6" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>33</v>
@@ -3238,26 +3238,26 @@
       </c>
       <c r="N6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S6" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3278,18 +3278,18 @@
       </c>
       <c r="F7" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -3303,11 +3303,11 @@
       </c>
       <c r="M7" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>372</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>35</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -3384,18 +3384,18 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="R8" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S8" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3416,18 +3416,18 @@
       </c>
       <c r="F9" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -3445,26 +3445,26 @@
       </c>
       <c r="N9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="R9" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S9" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3485,22 +3485,22 @@
       </c>
       <c r="F10" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>37</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -3518,22 +3518,22 @@
       </c>
       <c r="O10" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="R10" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S10" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3554,22 +3554,22 @@
       </c>
       <c r="F11" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>38</v>
@@ -3579,23 +3579,23 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="R11" s="15" t="s">
         <v>373</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>39</v>
@@ -3648,30 +3648,30 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="R12" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S12" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3692,22 +3692,22 @@
       </c>
       <c r="F13" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>40</v>
@@ -3721,26 +3721,26 @@
       </c>
       <c r="N13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="R13" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S13" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3761,22 +3761,22 @@
       </c>
       <c r="F14" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>41</v>
@@ -3786,30 +3786,30 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3830,22 +3830,22 @@
       </c>
       <c r="F15" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>42</v>
@@ -3855,11 +3855,11 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -3867,18 +3867,18 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S15" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3899,22 +3899,22 @@
       </c>
       <c r="F16" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>43</v>
@@ -3924,30 +3924,30 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -3968,22 +3968,22 @@
       </c>
       <c r="F17" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>44</v>
@@ -3997,26 +3997,26 @@
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" ca="1" si="6"/>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="S18" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4106,22 +4106,22 @@
       </c>
       <c r="F19" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>46</v>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -4139,22 +4139,22 @@
       </c>
       <c r="O19" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S19" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4175,22 +4175,22 @@
       </c>
       <c r="F20" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>47</v>
@@ -4200,30 +4200,30 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="R20" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4244,22 +4244,22 @@
       </c>
       <c r="F21" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>48</v>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -4281,18 +4281,18 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="R21" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S21" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4313,22 +4313,22 @@
       </c>
       <c r="F22" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>49</v>
@@ -4338,30 +4338,30 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R22" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>50</v>
@@ -4407,30 +4407,30 @@
       </c>
       <c r="M23" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R23" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4451,22 +4451,22 @@
       </c>
       <c r="F24" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>51</v>
@@ -4480,26 +4480,26 @@
       </c>
       <c r="N24" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R24" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S24" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4520,22 +4520,22 @@
       </c>
       <c r="F25" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>52</v>
@@ -4545,30 +4545,30 @@
       </c>
       <c r="M25" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R25" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S25" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4589,22 +4589,22 @@
       </c>
       <c r="F26" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>53</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="M26" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -4622,22 +4622,22 @@
       </c>
       <c r="O26" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="R26" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4658,22 +4658,22 @@
       </c>
       <c r="F27" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>54</v>
@@ -4683,30 +4683,30 @@
       </c>
       <c r="M27" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="R27" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4727,18 +4727,18 @@
       </c>
       <c r="F28" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4752,30 +4752,30 @@
       </c>
       <c r="M28" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R28" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S28" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>56</v>
@@ -4821,30 +4821,30 @@
       </c>
       <c r="M29" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="R29" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4865,22 +4865,22 @@
       </c>
       <c r="F30" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>57</v>
@@ -4890,11 +4890,11 @@
       </c>
       <c r="M30" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -4902,18 +4902,18 @@
       </c>
       <c r="P30" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S30" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="F31" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>58</v>
@@ -4959,30 +4959,30 @@
       </c>
       <c r="M31" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="R31" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S31" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5003,22 +5003,22 @@
       </c>
       <c r="F32" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>59</v>
@@ -5028,30 +5028,30 @@
       </c>
       <c r="M32" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="R32" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S32" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5072,22 +5072,22 @@
       </c>
       <c r="F33" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>60</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M33" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -5109,18 +5109,18 @@
       </c>
       <c r="P33" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R33" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S33" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F34" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>31</v>
@@ -5152,11 +5152,11 @@
       </c>
       <c r="I34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>61</v>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="M34" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -5174,22 +5174,22 @@
       </c>
       <c r="O34" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="R34" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5210,18 +5210,18 @@
       </c>
       <c r="F35" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="M35" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" ca="1" si="3"/>
@@ -5243,22 +5243,22 @@
       </c>
       <c r="O35" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5279,22 +5279,22 @@
       </c>
       <c r="F36" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>63</v>
@@ -5304,23 +5304,23 @@
       </c>
       <c r="M36" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="R36" s="15" t="s">
         <v>374</v>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="H37" s="6">
         <f t="shared" ref="H37:H68" ca="1" si="9">RANDBETWEEN(1,28)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" ref="I37:I68" ca="1" si="10">RANDBETWEEN(1,12)</f>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="J37" s="6">
         <f t="shared" ref="J37:J68" ca="1" si="11">RANDBETWEEN(2002,2010)</f>
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>64</v>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="M37" s="6">
         <f t="shared" ref="M37:M68" ca="1" si="12">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" ref="N37:N68" ca="1" si="13">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" ref="O37:O68" ca="1" si="14">RANDBETWEEN(1,5)</f>
@@ -5385,18 +5385,18 @@
       </c>
       <c r="P37" s="6">
         <f t="shared" ref="P37:P68" ca="1" si="15">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" ref="Q37:Q68" ca="1" si="16">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R37" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S37" s="16">
         <f t="shared" ref="S37:S68" ca="1" si="17">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5417,22 +5417,22 @@
       </c>
       <c r="F38" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>65</v>
@@ -5442,23 +5442,23 @@
       </c>
       <c r="M38" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="R38" s="15" t="s">
         <v>373</v>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="F39" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>66</v>
@@ -5511,30 +5511,30 @@
       </c>
       <c r="M39" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R39" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5555,22 +5555,22 @@
       </c>
       <c r="F40" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>67</v>
@@ -5580,11 +5580,11 @@
       </c>
       <c r="M40" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" ca="1" si="14"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="P40" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="R40" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S40" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5624,22 +5624,22 @@
       </c>
       <c r="F41" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>68</v>
@@ -5649,30 +5649,30 @@
       </c>
       <c r="M41" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P41" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q41" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S41" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="F42" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>69</v>
@@ -5718,30 +5718,30 @@
       </c>
       <c r="M42" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="Q42" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="R42" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S42" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5762,22 +5762,22 @@
       </c>
       <c r="F43" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>70</v>
@@ -5791,26 +5791,26 @@
       </c>
       <c r="N43" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="R43" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S43" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="H44" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="J44" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>71</v>
@@ -5856,30 +5856,30 @@
       </c>
       <c r="M44" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P44" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="Q44" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="R44" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S44" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5900,22 +5900,22 @@
       </c>
       <c r="F45" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>72</v>
@@ -5925,30 +5925,30 @@
       </c>
       <c r="M45" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O45" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="R45" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S45" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -5969,22 +5969,22 @@
       </c>
       <c r="F46" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>73</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="M46" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" s="6">
         <f t="shared" ca="1" si="13"/>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="O46" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="R46" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S46" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="H47" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="J47" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>74</v>
@@ -6067,26 +6067,26 @@
       </c>
       <c r="N47" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q47" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="R47" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S47" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="H48" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="J48" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>75</v>
@@ -6132,30 +6132,30 @@
       </c>
       <c r="M48" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P48" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="Q48" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="R48" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S48" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6176,22 +6176,22 @@
       </c>
       <c r="F49" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>76</v>
@@ -6201,30 +6201,30 @@
       </c>
       <c r="M49" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N49" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O49" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R49" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S49" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6245,22 +6245,22 @@
       </c>
       <c r="F50" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>77</v>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="M50" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" ca="1" si="13"/>
@@ -6278,22 +6278,22 @@
       </c>
       <c r="O50" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P50" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="Q50" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S50" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6314,22 +6314,22 @@
       </c>
       <c r="F51" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>78</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="M51" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" s="6">
         <f t="shared" ca="1" si="13"/>
@@ -6347,22 +6347,22 @@
       </c>
       <c r="O51" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="R51" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S51" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6383,22 +6383,22 @@
       </c>
       <c r="F52" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>79</v>
@@ -6408,23 +6408,23 @@
       </c>
       <c r="M52" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P52" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="Q52" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="R52" s="15" t="s">
         <v>370</v>
@@ -6452,22 +6452,22 @@
       </c>
       <c r="F53" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>80</v>
@@ -6477,23 +6477,23 @@
       </c>
       <c r="M53" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O53" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P53" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q53" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="R53" s="15" t="s">
         <v>374</v>
@@ -6521,22 +6521,22 @@
       </c>
       <c r="F54" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>81</v>
@@ -6546,30 +6546,30 @@
       </c>
       <c r="M54" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="Q54" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="R54" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S54" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6590,22 +6590,22 @@
       </c>
       <c r="F55" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>82</v>
@@ -6619,26 +6619,26 @@
       </c>
       <c r="N55" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q55" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="R55" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S55" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6659,22 +6659,22 @@
       </c>
       <c r="F56" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>83</v>
@@ -6688,26 +6688,26 @@
       </c>
       <c r="N56" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O56" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="Q56" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R56" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S56" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6728,22 +6728,22 @@
       </c>
       <c r="F57" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>84</v>
@@ -6753,30 +6753,30 @@
       </c>
       <c r="M57" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O57" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P57" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q57" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="R57" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S57" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="F58" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>31</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="I58" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>85</v>
@@ -6822,30 +6822,30 @@
       </c>
       <c r="M58" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Q58" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="R58" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S58" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6866,22 +6866,22 @@
       </c>
       <c r="F59" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>86</v>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="M59" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N59" s="6">
         <f t="shared" ca="1" si="13"/>
@@ -6899,22 +6899,22 @@
       </c>
       <c r="O59" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P59" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R59" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S59" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -6935,22 +6935,22 @@
       </c>
       <c r="F60" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>87</v>
@@ -6960,11 +6960,11 @@
       </c>
       <c r="M60" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O60" s="6">
         <f t="shared" ca="1" si="14"/>
@@ -6972,11 +6972,11 @@
       </c>
       <c r="P60" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="Q60" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="R60" s="15" t="s">
         <v>372</v>
@@ -7004,22 +7004,22 @@
       </c>
       <c r="F61" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H61" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>88</v>
@@ -7033,26 +7033,26 @@
       </c>
       <c r="N61" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O61" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P61" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="Q61" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="R61" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S61" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7073,22 +7073,22 @@
       </c>
       <c r="F62" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>89</v>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="M62" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N62" s="6">
         <f t="shared" ca="1" si="13"/>
@@ -7106,22 +7106,22 @@
       </c>
       <c r="O62" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P62" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q62" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R62" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S62" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7142,22 +7142,22 @@
       </c>
       <c r="F63" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>68</v>
@@ -7167,11 +7167,11 @@
       </c>
       <c r="M63" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O63" s="6">
         <f t="shared" ca="1" si="14"/>
@@ -7179,18 +7179,18 @@
       </c>
       <c r="P63" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R63" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S63" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7211,22 +7211,22 @@
       </c>
       <c r="F64" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>90</v>
@@ -7236,30 +7236,30 @@
       </c>
       <c r="M64" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O64" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q64" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="R64" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S64" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7280,22 +7280,22 @@
       </c>
       <c r="F65" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H65" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>91</v>
@@ -7305,30 +7305,30 @@
       </c>
       <c r="M65" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N65" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O65" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="Q65" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R65" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S65" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H66" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="J66" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>92</v>
@@ -7374,30 +7374,30 @@
       </c>
       <c r="M66" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N66" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P66" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="Q66" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="R66" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S66" s="16">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7418,22 +7418,22 @@
       </c>
       <c r="F67" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J67" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>93</v>
@@ -7443,23 +7443,23 @@
       </c>
       <c r="M67" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N67" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O67" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="Q67" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="R67" s="15" t="s">
         <v>373</v>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="H68" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="J68" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>94</v>
@@ -7512,23 +7512,23 @@
       </c>
       <c r="M68" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N68" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O68" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q68" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="R68" s="15" t="s">
         <v>373</v>
@@ -7556,22 +7556,22 @@
       </c>
       <c r="F69" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" ref="H69:H104" ca="1" si="18">RANDBETWEEN(1,28)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" ref="I69:I104" ca="1" si="19">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" ref="J69:J104" ca="1" si="20">RANDBETWEEN(2002,2010)</f>
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>95</v>
@@ -7585,26 +7585,26 @@
       </c>
       <c r="N69" s="6">
         <f t="shared" ref="N69:N104" ca="1" si="22">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" s="6">
         <f t="shared" ref="O69:O104" ca="1" si="23">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P69" s="6">
         <f t="shared" ref="P69:P104" ca="1" si="24">RANDBETWEEN(1,100)</f>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="Q69" s="6">
         <f t="shared" ref="Q69:Q104" ca="1" si="25">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="R69" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S69" s="16">
         <f t="shared" ref="S69:S105" ca="1" si="26">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7625,18 +7625,18 @@
       </c>
       <c r="F70" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" ca="1" si="20"/>
@@ -7650,30 +7650,30 @@
       </c>
       <c r="M70" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O70" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P70" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="Q70" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="R70" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S70" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7694,22 +7694,22 @@
       </c>
       <c r="F71" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H71" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>97</v>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="M71" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -7731,18 +7731,18 @@
       </c>
       <c r="P71" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="R71" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S71" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7763,18 +7763,18 @@
       </c>
       <c r="F72" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" ca="1" si="20"/>
@@ -7788,30 +7788,30 @@
       </c>
       <c r="M72" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N72" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O72" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P72" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q72" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="R72" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S72" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7832,22 +7832,22 @@
       </c>
       <c r="F73" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>99</v>
@@ -7857,30 +7857,30 @@
       </c>
       <c r="M73" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N73" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O73" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P73" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q73" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="R73" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S73" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7901,22 +7901,22 @@
       </c>
       <c r="F74" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>100</v>
@@ -7926,30 +7926,30 @@
       </c>
       <c r="M74" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N74" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O74" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P74" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="Q74" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="R74" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S74" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -7970,22 +7970,22 @@
       </c>
       <c r="F75" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="K75" s="6" t="s">
         <v>101</v>
@@ -7995,30 +7995,30 @@
       </c>
       <c r="M75" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N75" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O75" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P75" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Q75" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="R75" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S75" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8039,22 +8039,22 @@
       </c>
       <c r="F76" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H76" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>61</v>
@@ -8068,26 +8068,26 @@
       </c>
       <c r="N76" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P76" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="R76" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S76" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8108,22 +8108,22 @@
       </c>
       <c r="F77" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J77" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>102</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="M77" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77" s="6">
         <f t="shared" ca="1" si="22"/>
@@ -8141,22 +8141,22 @@
       </c>
       <c r="O77" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P77" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Q77" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="R77" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S77" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8177,22 +8177,22 @@
       </c>
       <c r="F78" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H78" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J78" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>103</v>
@@ -8202,30 +8202,30 @@
       </c>
       <c r="M78" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N78" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O78" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P78" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q78" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="R78" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S78" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8246,22 +8246,22 @@
       </c>
       <c r="F79" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J79" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>104</v>
@@ -8271,30 +8271,30 @@
       </c>
       <c r="M79" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="R79" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S79" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8315,22 +8315,22 @@
       </c>
       <c r="F80" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>105</v>
@@ -8340,23 +8340,23 @@
       </c>
       <c r="M80" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N80" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P80" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="Q80" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="R80" s="15" t="s">
         <v>374</v>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H81" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" ca="1" si="19"/>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="J81" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="K81" s="6" t="s">
         <v>106</v>
@@ -8413,26 +8413,26 @@
       </c>
       <c r="N81" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O81" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P81" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="Q81" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R81" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S81" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8453,22 +8453,22 @@
       </c>
       <c r="F82" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>107</v>
@@ -8478,11 +8478,11 @@
       </c>
       <c r="M82" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N82" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O82" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -8490,18 +8490,18 @@
       </c>
       <c r="P82" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q82" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="R82" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S82" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8522,22 +8522,22 @@
       </c>
       <c r="F83" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>108</v>
@@ -8547,30 +8547,30 @@
       </c>
       <c r="M83" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N83" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O83" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P83" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="Q83" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R83" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S83" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8591,22 +8591,22 @@
       </c>
       <c r="F84" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>109</v>
@@ -8616,30 +8616,30 @@
       </c>
       <c r="M84" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N84" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O84" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="Q84" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="R84" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S84" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8660,22 +8660,22 @@
       </c>
       <c r="F85" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>110</v>
@@ -8685,23 +8685,23 @@
       </c>
       <c r="M85" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O85" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P85" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="Q85" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="R85" s="15" t="s">
         <v>374</v>
@@ -8729,22 +8729,22 @@
       </c>
       <c r="F86" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H86" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J86" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>111</v>
@@ -8758,26 +8758,26 @@
       </c>
       <c r="N86" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P86" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="Q86" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="R86" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S86" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="F87" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>31</v>
@@ -8809,11 +8809,11 @@
       </c>
       <c r="I87" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>112</v>
@@ -8827,26 +8827,26 @@
       </c>
       <c r="N87" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O87" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P87" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q87" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="R87" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S87" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8867,22 +8867,22 @@
       </c>
       <c r="F88" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H88" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J88" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>113</v>
@@ -8892,30 +8892,30 @@
       </c>
       <c r="M88" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N88" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O88" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="Q88" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="R88" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S88" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -8936,22 +8936,22 @@
       </c>
       <c r="F89" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>103</v>
@@ -8961,11 +8961,11 @@
       </c>
       <c r="M89" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N89" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O89" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -8973,18 +8973,18 @@
       </c>
       <c r="P89" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="R89" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S89" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9005,18 +9005,18 @@
       </c>
       <c r="F90" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" ca="1" si="20"/>
@@ -9030,11 +9030,11 @@
       </c>
       <c r="M90" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N90" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O90" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -9042,18 +9042,18 @@
       </c>
       <c r="P90" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="Q90" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="R90" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S90" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9074,22 +9074,22 @@
       </c>
       <c r="F91" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H91" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>115</v>
@@ -9103,26 +9103,26 @@
       </c>
       <c r="N91" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O91" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="Q91" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="R91" s="15" t="s">
         <v>374</v>
       </c>
       <c r="S91" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9143,22 +9143,22 @@
       </c>
       <c r="F92" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H92" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I92" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>116</v>
@@ -9172,26 +9172,26 @@
       </c>
       <c r="N92" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O92" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P92" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="Q92" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="R92" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S92" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9212,22 +9212,22 @@
       </c>
       <c r="F93" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>117</v>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="M93" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N93" s="6">
         <f t="shared" ca="1" si="22"/>
@@ -9249,18 +9249,18 @@
       </c>
       <c r="P93" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="Q93" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R93" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S93" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9281,22 +9281,22 @@
       </c>
       <c r="F94" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H94" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I94" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>118</v>
@@ -9306,30 +9306,30 @@
       </c>
       <c r="M94" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N94" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O94" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P94" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="Q94" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="R94" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S94" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9350,18 +9350,18 @@
       </c>
       <c r="F95" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H95" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J95" s="6">
         <f t="shared" ca="1" si="20"/>
@@ -9375,30 +9375,30 @@
       </c>
       <c r="M95" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N95" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O95" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P95" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="Q95" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R95" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S95" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -9419,22 +9419,22 @@
       </c>
       <c r="F96" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H96" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J96" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>120</v>
@@ -9448,26 +9448,26 @@
       </c>
       <c r="N96" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P96" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="Q96" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R96" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S96" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9488,22 +9488,22 @@
       </c>
       <c r="F97" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H97" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>121</v>
@@ -9513,30 +9513,30 @@
       </c>
       <c r="M97" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N97" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O97" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P97" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Q97" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="R97" s="15" t="s">
         <v>371</v>
       </c>
       <c r="S97" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9557,22 +9557,22 @@
       </c>
       <c r="F98" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H98" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>122</v>
@@ -9582,23 +9582,23 @@
       </c>
       <c r="M98" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N98" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O98" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P98" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="Q98" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="R98" s="15" t="s">
         <v>371</v>
@@ -9626,22 +9626,22 @@
       </c>
       <c r="F99" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H99" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="K99" s="6" t="s">
         <v>123</v>
@@ -9651,30 +9651,30 @@
       </c>
       <c r="M99" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N99" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O99" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P99" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q99" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R99" s="15" t="s">
         <v>373</v>
       </c>
       <c r="S99" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9695,22 +9695,22 @@
       </c>
       <c r="F100" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H100" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I100" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="K100" s="6" t="s">
         <v>124</v>
@@ -9720,30 +9720,30 @@
       </c>
       <c r="M100" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N100" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O100" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="Q100" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="R100" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S100" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9764,22 +9764,22 @@
       </c>
       <c r="F101" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H101" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J101" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>103</v>
@@ -9789,30 +9789,30 @@
       </c>
       <c r="M101" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O101" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P101" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="Q101" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="R101" s="15" t="s">
         <v>372</v>
       </c>
       <c r="S101" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9833,22 +9833,22 @@
       </c>
       <c r="F102" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H102" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I102" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J102" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>125</v>
@@ -9858,11 +9858,11 @@
       </c>
       <c r="M102" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N102" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O102" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -9870,11 +9870,11 @@
       </c>
       <c r="P102" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="Q102" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="R102" s="15" t="s">
         <v>371</v>
@@ -9902,22 +9902,22 @@
       </c>
       <c r="F103" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H103" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I103" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J103" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>126</v>
@@ -9927,30 +9927,30 @@
       </c>
       <c r="M103" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N103" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O103" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P103" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="Q103" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="R103" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S103" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
@@ -9971,22 +9971,22 @@
       </c>
       <c r="F104" s="6">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H104" s="6">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I104" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J104" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>127</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="M104" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104" s="6">
         <f t="shared" ca="1" si="22"/>
@@ -10004,22 +10004,22 @@
       </c>
       <c r="O104" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" s="6">
         <f t="shared" ca="1" si="24"/>
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="6">
         <f t="shared" ca="1" si="25"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R104" s="15" t="s">
         <v>370</v>
       </c>
       <c r="S104" s="16">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="F105" s="17">
         <f ca="1">SUM(2022,-Tabla5[[#This Row],[mes]])</f>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G105" s="17" t="e">
         <f t="shared" ref="G105" si="27">v</f>
@@ -10040,19 +10040,19 @@
       </c>
       <c r="H105" s="17">
         <f t="shared" ref="H105" ca="1" si="28">RANDBETWEEN(1,28)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I105" s="17">
         <f t="shared" ref="I105" ca="1" si="29">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J105" s="17">
         <f t="shared" ref="J105" ca="1" si="30">RANDBETWEEN(2002,2010)</f>
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="K105" s="17">
         <f t="shared" ref="K105" ca="1" si="31">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L105" s="21" t="s">
         <v>87</v>
@@ -10067,20 +10067,20 @@
       </c>
       <c r="O105" s="17">
         <f t="shared" ref="O105" ca="1" si="34">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P105" s="17">
         <f t="shared" ref="P105" ca="1" si="35">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Q105" s="17">
         <f t="shared" ref="Q105" ca="1" si="36">RANDBETWEEN(1,100)</f>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="R105" s="17"/>
       <c r="S105" s="22">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -10197,19 +10197,19 @@
       </c>
       <c r="G5" s="9">
         <f ca="1">RANDBETWEEN(1000000,8000000)</f>
-        <v>7012543</v>
+        <v>2317202</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ref="H5:H24" ca="1" si="0">RANDBETWEEN(1000000000,9999999999)</f>
-        <v>1487391139</v>
+        <v>9440353937</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:J24" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10233,19 +10233,19 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G24" ca="1" si="2">RANDBETWEEN(1000000,8000000)</f>
-        <v>2366223</v>
+        <v>7076652</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6446172219</v>
+        <v>5006429095</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10269,19 +10269,19 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5255851</v>
+        <v>1915798</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4715161150</v>
+        <v>3032970250</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10305,19 +10305,19 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3626073</v>
+        <v>1729133</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9143352327</v>
+        <v>9200185130</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10341,19 +10341,19 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>6902206</v>
+        <v>2368445</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1051916939</v>
+        <v>7672005629</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10377,19 +10377,19 @@
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1738050</v>
+        <v>3213410</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2927320865</v>
+        <v>8353801434</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10413,19 +10413,19 @@
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>7507236</v>
+        <v>1966541</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8331871059</v>
+        <v>3069784646</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10449,19 +10449,19 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>7527246</v>
+        <v>6466518</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6965795932</v>
+        <v>9657448377</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10485,19 +10485,19 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1883197</v>
+        <v>2973076</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1685276532</v>
+        <v>2627484376</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10521,19 +10521,19 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>6361542</v>
+        <v>4351450</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5488276813</v>
+        <v>4477889280</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10557,19 +10557,19 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4341601</v>
+        <v>3878169</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8002142867</v>
+        <v>3932512004</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10593,19 +10593,19 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2681926</v>
+        <v>3245653</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4200452422</v>
+        <v>7802487635</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10629,19 +10629,19 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5806921</v>
+        <v>2029669</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5036668189</v>
+        <v>3642842720</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10665,19 +10665,19 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4642175</v>
+        <v>5884836</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9900248394</v>
+        <v>8809688400</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10701,19 +10701,19 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>7411233</v>
+        <v>2560642</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9510589897</v>
+        <v>3248194211</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10737,19 +10737,19 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4021311</v>
+        <v>4531145</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8449075345</v>
+        <v>4801640818</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10773,19 +10773,19 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5517220</v>
+        <v>2174723</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2474948517</v>
+        <v>3759142319</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10809,19 +10809,19 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1020663</v>
+        <v>2266442</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8386378019</v>
+        <v>8508042863</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10845,19 +10845,19 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3052574</v>
+        <v>4504908</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>8910543437</v>
+        <v>8973417571</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -10881,19 +10881,19 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>5009954</v>
+        <v>1608745</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1871252620</v>
+        <v>8180586218</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -10913,7 +10913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
@@ -10984,19 +10984,19 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E24" ca="1" si="0">RANDBETWEEN(3000000,10000000)</f>
-        <v>9608530</v>
+        <v>6814887</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" ref="F5:F24" ca="1" si="1">RANDBETWEEN(1000000000,9999999999)</f>
-        <v>3085835169</v>
+        <v>5493356721</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:H24" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -11013,19 +11013,19 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4716066</v>
+        <v>8550941</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>8369086326</v>
+        <v>3525448992</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -11042,19 +11042,19 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5595342</v>
+        <v>8044054</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3698076199</v>
+        <v>4245742844</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -11071,19 +11071,19 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3331911</v>
+        <v>8295047</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2920963150</v>
+        <v>6217800910</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -11100,19 +11100,19 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5753616</v>
+        <v>4567756</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9220848238</v>
+        <v>7008583355</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -11129,19 +11129,19 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3663987</v>
+        <v>8451987</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1949626901</v>
+        <v>7450917513</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -11158,19 +11158,19 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7277880</v>
+        <v>9446485</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2714948079</v>
+        <v>5942635539</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -11187,19 +11187,19 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3690564</v>
+        <v>8926724</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6400002041</v>
+        <v>8133659779</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -11216,19 +11216,19 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9088647</v>
+        <v>6261304</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2192588716</v>
+        <v>3740547990</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -11245,19 +11245,19 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9308170</v>
+        <v>4899565</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6450817297</v>
+        <v>5859111596</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -11274,19 +11274,19 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3411441</v>
+        <v>5548761</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4748423229</v>
+        <v>4685879282</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -11303,19 +11303,19 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4284954</v>
+        <v>7823683</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4901801320</v>
+        <v>1962238717</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -11332,19 +11332,19 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5286199</v>
+        <v>7818781</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3948052120</v>
+        <v>1386981442</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -11361,19 +11361,19 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7384251</v>
+        <v>4328506</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>7027578060</v>
+        <v>2809746692</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -11390,19 +11390,19 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4741082</v>
+        <v>4682682</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6960058470</v>
+        <v>2546760292</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -11419,19 +11419,19 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6593446</v>
+        <v>4047657</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3834594849</v>
+        <v>8251679826</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -11448,19 +11448,19 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4442279</v>
+        <v>5343616</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5246219688</v>
+        <v>4576810163</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -11477,19 +11477,19 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5251502</v>
+        <v>4626130</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6443139485</v>
+        <v>6681333652</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -11506,19 +11506,19 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4963005</v>
+        <v>5176766</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5313650013</v>
+        <v>3959840861</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -11535,19 +11535,19 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3417814</v>
+        <v>5648690</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9503026267</v>
+        <v>3009956754</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1"/>
     </row>
